--- a/data_analysis/Fig_18_Woon_2018_Tab5_6.xlsx
+++ b/data_analysis/Fig_18_Woon_2018_Tab5_6.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/Jobs/Helsinki_2023/Application/Discussion_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85981E-D479-DE48-B104-355437C2F9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971D44D-3606-CE4B-9F6C-252752E07DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="28080" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28060" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LnTP_2014-2023" sheetId="5" r:id="rId1"/>
-    <sheet name="LnTP_2014-2023_IL20" sheetId="6" r:id="rId2"/>
-    <sheet name="LnTP_2011-2023_IL20" sheetId="4" r:id="rId3"/>
-    <sheet name="LnTP_2011-2023" sheetId="2" r:id="rId4"/>
+    <sheet name="LnTP_2011-2023" sheetId="2" r:id="rId1"/>
+    <sheet name="LnTP_2014-2023" sheetId="5" r:id="rId2"/>
+    <sheet name="LnTP_2014-2023_IL20" sheetId="6" r:id="rId3"/>
+    <sheet name="LnTP_2011-2023_IL20" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="1" r:id="rId5"/>
     <sheet name="Raw_IL20" sheetId="3" r:id="rId6"/>
     <sheet name="Ln(SfS) vs IL20" sheetId="8" r:id="rId7"/>
@@ -233,1773 +233,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2014-2023 Ln (TP CPI (ONS) adjusted) vs Gilt Yield</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.9164880012026319E-2"/>
-                  <c:y val="-0.75677125459621186"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$N$5:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.3469000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2852999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5876999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2827</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6918</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$K$5:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.1342992667994753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.335582715401519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3683374217842426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5327378804168621</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4332166686194778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.566468962453639</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5917104229039172</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6177400077298065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5757104788364664</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1850989254905651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EA6-D845-AD60-FFD6E80792D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1013066576"/>
-        <c:axId val="914390784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1013066576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914390784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914390784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1013066576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2014-2023 Ln (SfS CPI (ONS) adjusted) vs Gilt Yield</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ln (TP CIP (ONS) adjusted)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.6393263342082246E-3"/>
-                  <c:y val="-0.52004629629629628"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$N$5:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.3469000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2852999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5876999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2827</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6918</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$M$5:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.3134174038758921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6593583955015383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.660807966331924</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8271845866756058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8669899191483932</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8883531526246955</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.424120619870882</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9CD-A040-AD37-88CF429A15F2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1013066576"/>
-        <c:axId val="914390784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1013066576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914390784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914390784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1013066576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2014-2023 Ln (TP CPI (ONS) adjusted) vs IL20</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.6393263342082246E-3"/>
-                  <c:y val="-0.52004629629629628"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = -0.2014x + 4.1828</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0.9314</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$P$5:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$K$5:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.1342992667994753</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.335582715401519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3683374217842426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5327378804168621</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4332166686194778</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.566468962453639</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5917104229039172</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6177400077298065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5757104788364664</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1850989254905651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C30-7C40-8333-676473C2C377}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1013066576"/>
-        <c:axId val="914390784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1013066576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914390784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914390784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1013066576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2011-2023 Ln (TP CPI (ONS) adjusted) vs IL20</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.7220884593358982E-2"/>
-                  <c:y val="-0.54029491753096748"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data!$P$2:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.93</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data!$K$2:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3.9036572452294585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0953608916102393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2122311703033342</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1342992667994753</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.335582715401519</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3683374217842426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5327378804168621</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4332166686194778</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.566468962453639</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5917104229039172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6177400077298065</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5757104788364664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1850989254905651</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0ED-984D-B14F-44890A9B40E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1013066576"/>
-        <c:axId val="914390784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1013066576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914390784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="914390784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1013066576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3095,6 +1328,1773 @@
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013066576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2014-2023 Ln (SfS CPI (ONS) adjusted) vs Gilt Yield</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ln (TP CIP (ONS) adjusted)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6393263342082246E-3"/>
+                  <c:y val="-0.52004629629629628"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$N$5:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3469000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$M$5:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3134174038758921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6593583955015383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.660807966331924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8271845866756058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8669899191483932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8883531526246955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.424120619870882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9CD-A040-AD37-88CF429A15F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013066576"/>
+        <c:axId val="914390784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013066576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914390784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914390784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013066576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2014-2023 Ln (TP CPI (ONS) adjusted) vs Gilt Yield</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9164880012026319E-2"/>
+                  <c:y val="-0.75677125459621186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$N$5:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3469000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1342992667994753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.335582715401519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3683374217842426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5327378804168621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4332166686194778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.566468962453639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5917104229039172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6177400077298065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5757104788364664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1850989254905651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EA6-D845-AD60-FFD6E80792D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013066576"/>
+        <c:axId val="914390784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013066576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914390784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914390784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013066576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2014-2023 Ln (TP CPI (ONS) adjusted) vs IL20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6393263342082246E-3"/>
+                  <c:y val="-0.52004629629629628"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0.2014x + 4.1828</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9314</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1342992667994753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.335582715401519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3683374217842426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5327378804168621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4332166686194778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.566468962453639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5917104229039172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6177400077298065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5757104788364664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1850989254905651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C30-7C40-8333-676473C2C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013066576"/>
+        <c:axId val="914390784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013066576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914390784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914390784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013066576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2011-2023 Ln (TP CPI (ONS) adjusted) vs IL20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ln (TP CPI (ONS) adjusted)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7220884593358982E-2"/>
+                  <c:y val="-0.54029491753096748"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.9036572452294585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0953608916102393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2122311703033342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1342992667994753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.335582715401519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3683374217842426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5327378804168621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4332166686194778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.566468962453639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5917104229039172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6177400077298065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5757104788364664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1850989254905651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0ED-984D-B14F-44890A9B40E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013066576"/>
+        <c:axId val="914390784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013066576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914390784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914390784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -10903,6 +10903,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA396C2A-202B-5647-BB0C-009AE18C8ACD}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9DC04534-45E7-E34D-B8FF-7029C2B13B5E}">
   <sheetPr/>
   <sheetViews>
@@ -10913,7 +10924,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D1F05B86-10C5-7740-9C1A-02129F1B5932}">
   <sheetPr/>
   <sheetViews>
@@ -10924,22 +10935,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C9A1482C-DF18-8848-ACB0-CDC9A5EC730D}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA396C2A-202B-5647-BB0C-009AE18C8ACD}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10978,7 +10978,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378705CF-1175-06D9-0692-7E4F47DBBE47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A2389A-38CA-94B9-E8D7-07F3D0906142}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11011,7 +11011,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30088157-FF9E-AC12-767F-3F695EB2A3C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378705CF-1175-06D9-0692-7E4F47DBBE47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11044,7 +11044,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7087FC1C-BE8F-FAEF-4792-2026E2E218FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30088157-FF9E-AC12-767F-3F695EB2A3C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11077,7 +11077,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A2389A-38CA-94B9-E8D7-07F3D0906142}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7087FC1C-BE8F-FAEF-4792-2026E2E218FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11104,15 +11104,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11216,16 +11216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11523,8 +11523,8 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
